--- a/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:26:13+00:00</t>
+    <t>2025-10-07T14:58:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:58:06+00:00</t>
+    <t>2025-10-08T14:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:59:36+00:00</t>
+    <t>2025-10-10T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T14:52:44+00:00</t>
+    <t>2025-10-14T09:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T09:28:59+00:00</t>
+    <t>2025-10-15T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
